--- a/NSS/设计书.xlsx
+++ b/NSS/设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13060"/>
+    <workbookView windowWidth="27660" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"># 上传或者下载简历 </t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t># 希望出现类似网页助手的部分</t>
+  </si>
+  <si>
+    <t>https://www.basenet.co.jp/recruit/index.html</t>
   </si>
   <si>
     <t>管理员</t>
@@ -701,15 +704,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +810,53 @@
         <a:xfrm>
           <a:off x="2926080" y="7416800"/>
           <a:ext cx="3822700" cy="2616200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>642620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="426720"/>
+          <a:ext cx="18199100" cy="8877300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,463 +1132,463 @@
   <sheetPr/>
   <dimension ref="C3:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="3" ht="34.4" spans="3:18">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" ht="34.4" spans="4:18">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" ht="34.4" spans="4:18">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" ht="34.4" spans="4:18">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" ht="34.4" spans="4:18">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" ht="34.4" spans="3:18">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" ht="34.4" spans="4:18">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" ht="34.4" spans="4:18">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" ht="34.4" spans="4:18">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" ht="34.4" spans="4:18">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" ht="34.4" spans="4:18">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" ht="34.4" spans="3:18">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" ht="34.4" spans="4:18">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" ht="34.4" spans="4:18">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" ht="34.4" spans="4:18">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" ht="34.4" spans="3:18">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" ht="34.4" spans="4:18">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" ht="34.4" spans="4:18">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" ht="34.4" spans="4:18">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" ht="34.4" spans="4:18">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" ht="34.4" spans="4:18">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" ht="34.4" spans="4:18">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" ht="34.4" spans="4:18">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
     <row r="26" ht="34.4" spans="4:18">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" ht="34.4" spans="4:18">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1553,16 +1600,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1587,10 +1641,10 @@
   <sheetData>
     <row r="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
